--- a/config_6.29/banner_style_ui.xlsx
+++ b/config_6.29/banner_style_ui.xlsx
@@ -836,9 +836,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="30">
@@ -900,21 +900,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -928,16 +913,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -956,14 +971,6 @@
       <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -999,23 +1006,8 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1029,8 +1021,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1038,6 +1031,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1117,7 +1117,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1129,37 +1201,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1171,37 +1213,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1219,31 +1237,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1255,25 +1267,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1285,19 +1297,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1327,21 +1327,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -1358,11 +1343,33 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1378,15 +1385,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1417,9 +1415,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1431,10 +1431,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1443,133 +1443,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="34" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -4863,10 +4863,10 @@
         <v>19</v>
       </c>
       <c r="K90" s="7">
-        <v>1624320000</v>
+        <v>1624924800</v>
       </c>
       <c r="L90" s="7">
-        <v>1624895999</v>
+        <v>1625500799</v>
       </c>
     </row>
     <row r="91" s="1" customFormat="1" spans="1:12">
